--- a/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
+++ b/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>Learning Time(minute)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>tree에 주소 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,13 +798,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,18 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1157,7 +1161,7 @@
   <dimension ref="B2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2"/>
@@ -1175,30 +1179,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2"/>
@@ -1248,46 +1252,46 @@
     </row>
     <row r="8" spans="2:11" ht="7.5" customHeight="1"/>
     <row r="9" spans="2:11" ht="15" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="17" t="s">
+      <c r="E9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" ht="26.4" customHeight="1">
       <c r="B11" s="6">
@@ -1311,7 +1315,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="11"/>
@@ -1341,7 +1345,7 @@
       <c r="H12" s="6">
         <v>736</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
     </row>
@@ -1367,7 +1371,7 @@
       <c r="H13" s="6">
         <v>533</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
     </row>
@@ -1393,7 +1397,7 @@
       <c r="H14" s="6">
         <v>342</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="8"/>
     </row>
@@ -1419,7 +1423,7 @@
       <c r="H15" s="6">
         <v>445</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="8"/>
     </row>
@@ -1445,7 +1449,7 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="11"/>
@@ -1475,7 +1479,7 @@
       <c r="H17" s="6">
         <v>723</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="11"/>
       <c r="K17" s="8"/>
     </row>
@@ -1501,7 +1505,7 @@
       <c r="H18" s="6">
         <v>1123</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8" t="s">
         <v>25</v>
@@ -1529,7 +1533,7 @@
       <c r="H19" s="6">
         <v>318</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -1557,7 +1561,7 @@
       <c r="H20" s="6">
         <v>521</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8" t="s">
         <v>29</v>
@@ -1585,8 +1589,8 @@
       <c r="H21" s="6">
         <v>329</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11">
@@ -1611,7 +1615,7 @@
       <c r="H22" s="7">
         <v>697</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="8" t="s">
         <v>33</v>
@@ -1639,7 +1643,7 @@
       <c r="H23" s="7">
         <v>1306</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="K23" s="8" t="s">
         <v>35</v>
@@ -1667,7 +1671,7 @@
       <c r="H24" s="7">
         <v>3689</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="8" t="s">
         <v>37</v>
@@ -1695,7 +1699,7 @@
       <c r="H25" s="7">
         <v>4005</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="11"/>
       <c r="K25" s="8" t="s">
         <v>39</v>
@@ -1723,7 +1727,7 @@
       <c r="H26" s="7">
         <v>2572</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="11"/>
       <c r="K26" s="8" t="s">
         <v>43</v>
@@ -1751,7 +1755,7 @@
       <c r="H27" s="7">
         <v>2691</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="11"/>
       <c r="K27" s="8"/>
     </row>
@@ -1777,7 +1781,7 @@
       <c r="H28" s="7">
         <v>2001</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="K28" s="8" t="s">
         <v>44</v>
@@ -1805,7 +1809,7 @@
       <c r="H29" s="7">
         <v>3568</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="11"/>
       <c r="K29" s="8" t="s">
         <v>46</v>
@@ -1833,7 +1837,7 @@
       <c r="H30" s="7">
         <v>3394</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="8" t="s">
         <v>48</v>
@@ -1861,7 +1865,7 @@
       <c r="H31" s="7">
         <v>2955</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="8"/>
     </row>
@@ -1887,7 +1891,7 @@
       <c r="H32" s="7">
         <v>4302</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
         <v>54</v>
@@ -1915,7 +1919,7 @@
       <c r="H33" s="7">
         <v>3297</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="11"/>
       <c r="K33" s="8" t="s">
         <v>55</v>
@@ -1943,7 +1947,7 @@
       <c r="H34" s="7">
         <v>4295</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="11"/>
       <c r="K34" s="8" t="s">
         <v>56</v>
@@ -1971,7 +1975,7 @@
       <c r="H35" s="7">
         <v>5168</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="11"/>
       <c r="K35" s="8" t="s">
         <v>57</v>
@@ -1999,7 +2003,7 @@
       <c r="H36" s="7">
         <v>3419</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="8"/>
     </row>
@@ -2025,7 +2029,7 @@
       <c r="H37" s="7">
         <v>6085</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="8" t="s">
         <v>60</v>
@@ -2053,7 +2057,7 @@
       <c r="H38" s="7">
         <v>1996</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="11"/>
       <c r="K38" s="8" t="s">
         <v>62</v>
@@ -2081,7 +2085,7 @@
       <c r="H39" s="7">
         <v>215</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="11"/>
       <c r="K39" s="8" t="s">
         <v>64</v>
@@ -2109,7 +2113,7 @@
       <c r="H40" s="7">
         <v>1124</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J40" s="11"/>
@@ -2139,7 +2143,7 @@
       <c r="H41" s="7">
         <v>4240</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="11"/>
       <c r="K41" s="8" t="s">
         <v>69</v>
@@ -2167,7 +2171,7 @@
       <c r="H42" s="7">
         <v>2994</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="11"/>
       <c r="K42" s="8" t="s">
         <v>71</v>
@@ -2195,7 +2199,7 @@
       <c r="H43" s="7">
         <v>3084</v>
       </c>
-      <c r="I43" s="12"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="11"/>
       <c r="K43" s="8" t="s">
         <v>73</v>
@@ -2223,7 +2227,7 @@
       <c r="H44" s="7">
         <v>3884</v>
       </c>
-      <c r="I44" s="12"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="11"/>
       <c r="K44" s="8" t="s">
         <v>75</v>
@@ -2251,7 +2255,7 @@
       <c r="H45" s="7">
         <v>686</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J45" s="11"/>
@@ -2281,7 +2285,7 @@
       <c r="H46" s="7">
         <v>1556</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J46" s="11"/>
@@ -2311,7 +2315,7 @@
       <c r="H47" s="7">
         <v>974</v>
       </c>
-      <c r="I47" s="12"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="11"/>
       <c r="K47" s="8"/>
     </row>
@@ -2337,7 +2341,7 @@
       <c r="H48" s="7">
         <v>71</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>81</v>
       </c>
       <c r="J48" s="11"/>
@@ -2367,7 +2371,7 @@
       <c r="H49" s="7">
         <v>1481</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J49" s="11"/>
@@ -2397,7 +2401,7 @@
       <c r="H50" s="7">
         <v>668</v>
       </c>
-      <c r="I50" s="12"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="11"/>
       <c r="K50" s="8" t="s">
         <v>87</v>
@@ -2425,7 +2429,7 @@
       <c r="H51" s="7">
         <v>2695</v>
       </c>
-      <c r="I51" s="12"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="11"/>
       <c r="K51" s="8" t="s">
         <v>89</v>
@@ -2453,7 +2457,7 @@
       <c r="H52" s="7">
         <v>1045</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="11"/>
       <c r="K52" s="8" t="s">
         <v>91</v>
@@ -2481,7 +2485,7 @@
       <c r="H53" s="7">
         <v>1806</v>
       </c>
-      <c r="I53" s="12"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="11"/>
       <c r="K53" s="8" t="s">
         <v>93</v>
@@ -2509,7 +2513,7 @@
       <c r="H54" s="7">
         <v>319</v>
       </c>
-      <c r="I54" s="12"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="11"/>
       <c r="K54" s="8" t="s">
         <v>95</v>
@@ -2537,7 +2541,7 @@
       <c r="H55" s="7">
         <v>2991</v>
       </c>
-      <c r="I55" s="12"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="8" t="s">
         <v>97</v>
@@ -2565,7 +2569,7 @@
       <c r="H56" s="7">
         <v>4771</v>
       </c>
-      <c r="I56" s="12"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="11"/>
       <c r="K56" s="8" t="s">
         <v>99</v>
@@ -2593,7 +2597,7 @@
       <c r="H57" s="7">
         <v>192</v>
       </c>
-      <c r="I57" s="12"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="11"/>
       <c r="K57" s="8" t="s">
         <v>101</v>
@@ -2621,7 +2625,7 @@
       <c r="H58" s="7">
         <v>689</v>
       </c>
-      <c r="I58" s="12"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="11"/>
       <c r="K58" s="8" t="s">
         <v>103</v>
@@ -2649,7 +2653,7 @@
       <c r="H59" s="7">
         <v>134</v>
       </c>
-      <c r="I59" s="12"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="11"/>
       <c r="K59" s="8"/>
     </row>
@@ -2675,7 +2679,7 @@
       <c r="H60" s="7">
         <v>2332</v>
       </c>
-      <c r="I60" s="12"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="11"/>
       <c r="K60" s="8" t="s">
         <v>106</v>
@@ -2703,7 +2707,7 @@
       <c r="H61" s="7">
         <v>219</v>
       </c>
-      <c r="I61" s="26" t="s">
+      <c r="I61" s="13" t="s">
         <v>119</v>
       </c>
       <c r="J61" s="11"/>
@@ -2731,7 +2735,7 @@
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J62" s="11"/>
@@ -2759,7 +2763,7 @@
       <c r="H63" s="7">
         <v>109</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="10" t="s">
         <v>111</v>
       </c>
       <c r="J63" s="11"/>
@@ -2787,7 +2791,7 @@
       <c r="H64" s="7">
         <v>93</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="12" t="s">
         <v>118</v>
       </c>
       <c r="J64" s="11"/>
@@ -2815,7 +2819,7 @@
       <c r="H65" s="7">
         <v>129</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="13" t="s">
         <v>120</v>
       </c>
       <c r="J65" s="11"/>
@@ -2845,7 +2849,7 @@
       <c r="H66" s="7">
         <v>99</v>
       </c>
-      <c r="I66" s="12"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="11"/>
       <c r="K66" s="8"/>
     </row>
@@ -2871,7 +2875,7 @@
       <c r="H67" s="7">
         <v>101</v>
       </c>
-      <c r="I67" s="12"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="11"/>
       <c r="K67" s="8" t="s">
         <v>116</v>
@@ -2899,7 +2903,7 @@
       <c r="H68" s="7">
         <v>290</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="10" t="s">
         <v>121</v>
       </c>
       <c r="J68" s="11"/>
@@ -2927,7 +2931,7 @@
       <c r="H69" s="7">
         <v>293</v>
       </c>
-      <c r="I69" s="12"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="11"/>
       <c r="K69" s="8"/>
     </row>
@@ -2953,7 +2957,7 @@
       <c r="H70" s="7">
         <v>94</v>
       </c>
-      <c r="I70" s="25" t="s">
+      <c r="I70" s="12" t="s">
         <v>123</v>
       </c>
       <c r="J70" s="11"/>
@@ -2983,7 +2987,7 @@
       <c r="H71" s="7">
         <v>24</v>
       </c>
-      <c r="I71" s="12"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="11"/>
       <c r="K71" s="8" t="s">
         <v>125</v>
@@ -3011,7 +3015,7 @@
       <c r="H72" s="7">
         <v>224</v>
       </c>
-      <c r="I72" s="12"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="11"/>
       <c r="K72" s="8" t="s">
         <v>126</v>
@@ -3039,7 +3043,7 @@
       <c r="H73" s="7">
         <v>242</v>
       </c>
-      <c r="I73" s="12"/>
+      <c r="I73" s="10"/>
       <c r="J73" s="11"/>
       <c r="K73" s="8" t="s">
         <v>128</v>
@@ -3067,7 +3071,7 @@
       <c r="H74" s="7">
         <v>780</v>
       </c>
-      <c r="I74" s="12"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="11"/>
       <c r="K74" s="8" t="s">
         <v>130</v>
@@ -3095,7 +3099,7 @@
       <c r="H75" s="7">
         <v>373</v>
       </c>
-      <c r="I75" s="12"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="11"/>
       <c r="K75" s="8" t="s">
         <v>132</v>
@@ -3123,33 +3127,61 @@
       <c r="H76" s="7">
         <v>619</v>
       </c>
-      <c r="I76" s="12"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="11"/>
       <c r="K76" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="12"/>
+      <c r="B77" s="6">
+        <v>180904</v>
+      </c>
+      <c r="C77" s="6">
+        <v>3</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="6">
+        <v>60</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>181</v>
+      </c>
+      <c r="H77" s="7">
+        <v>91</v>
+      </c>
+      <c r="I77" s="10"/>
       <c r="J77" s="11"/>
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="12"/>
+      <c r="B78" s="6">
+        <v>180905</v>
+      </c>
+      <c r="C78" s="6">
+        <v>3</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="6">
+        <v>37</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
+        <v>440</v>
+      </c>
+      <c r="H78" s="7">
+        <v>670</v>
+      </c>
+      <c r="I78" s="10"/>
       <c r="J78" s="11"/>
       <c r="K78" s="8"/>
     </row>
@@ -3161,7 +3193,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="11"/>
       <c r="K79" s="8"/>
     </row>
@@ -3173,7 +3205,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="12"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="11"/>
       <c r="K80" s="8"/>
     </row>
@@ -3185,7 +3217,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="12"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="11"/>
       <c r="K81" s="8"/>
     </row>
@@ -3197,7 +3229,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="10"/>
       <c r="J82" s="11"/>
       <c r="K82" s="8"/>
     </row>
@@ -3209,7 +3241,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="11"/>
       <c r="K83" s="8"/>
     </row>
@@ -3221,7 +3253,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="11"/>
       <c r="K84" s="8"/>
     </row>
@@ -3233,7 +3265,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="11"/>
       <c r="K85" s="8"/>
     </row>
@@ -3245,7 +3277,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="11"/>
       <c r="K86" s="8"/>
     </row>
@@ -3257,7 +3289,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="10"/>
       <c r="J87" s="11"/>
       <c r="K87" s="8"/>
     </row>
@@ -3269,7 +3301,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="12"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="11"/>
       <c r="K88" s="8"/>
     </row>
@@ -3281,7 +3313,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="11"/>
       <c r="K89" s="8"/>
     </row>
@@ -3293,7 +3325,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="12"/>
+      <c r="I90" s="10"/>
       <c r="J90" s="11"/>
       <c r="K90" s="8"/>
     </row>
@@ -3305,7 +3337,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="12"/>
+      <c r="I91" s="10"/>
       <c r="J91" s="11"/>
       <c r="K91" s="8"/>
     </row>
@@ -3317,7 +3349,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="10"/>
       <c r="J92" s="11"/>
       <c r="K92" s="8"/>
     </row>
@@ -3329,7 +3361,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="10"/>
       <c r="J93" s="11"/>
       <c r="K93" s="8"/>
     </row>
@@ -3341,7 +3373,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="10"/>
       <c r="J94" s="11"/>
       <c r="K94" s="8"/>
     </row>
@@ -3353,7 +3385,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="10"/>
       <c r="J95" s="11"/>
       <c r="K95" s="8"/>
     </row>
@@ -3365,7 +3397,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="12"/>
+      <c r="I96" s="10"/>
       <c r="J96" s="11"/>
       <c r="K96" s="8"/>
     </row>
@@ -3377,7 +3409,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="12"/>
+      <c r="I97" s="10"/>
       <c r="J97" s="11"/>
       <c r="K97" s="8"/>
     </row>
@@ -3389,7 +3421,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="12"/>
+      <c r="I98" s="10"/>
       <c r="J98" s="11"/>
       <c r="K98" s="8"/>
     </row>
@@ -3401,7 +3433,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="12"/>
+      <c r="I99" s="10"/>
       <c r="J99" s="11"/>
       <c r="K99" s="8"/>
     </row>
@@ -3413,7 +3445,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="12"/>
+      <c r="I100" s="10"/>
       <c r="J100" s="11"/>
       <c r="K100" s="8"/>
     </row>
@@ -3425,7 +3457,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="12"/>
+      <c r="I101" s="10"/>
       <c r="J101" s="11"/>
       <c r="K101" s="8"/>
     </row>
@@ -3437,7 +3469,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="10"/>
       <c r="J102" s="11"/>
       <c r="K102" s="8"/>
     </row>
@@ -3449,7 +3481,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="10"/>
       <c r="J103" s="11"/>
       <c r="K103" s="8"/>
     </row>
@@ -3461,7 +3493,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="10"/>
       <c r="J104" s="11"/>
       <c r="K104" s="8"/>
     </row>
@@ -3473,7 +3505,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="12"/>
+      <c r="I105" s="10"/>
       <c r="J105" s="11"/>
       <c r="K105" s="8"/>
     </row>
@@ -3485,7 +3517,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="12"/>
+      <c r="I106" s="10"/>
       <c r="J106" s="11"/>
       <c r="K106" s="8"/>
     </row>
@@ -3497,7 +3529,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="12"/>
+      <c r="I107" s="10"/>
       <c r="J107" s="11"/>
       <c r="K107" s="8"/>
     </row>
@@ -3509,7 +3541,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="12"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="11"/>
       <c r="K108" s="8"/>
     </row>
@@ -3521,7 +3553,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="12"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="11"/>
       <c r="K109" s="8"/>
     </row>
@@ -3533,7 +3565,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="12"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="11"/>
       <c r="K110" s="8"/>
     </row>
@@ -3545,7 +3577,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="12"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="11"/>
       <c r="K111" s="8"/>
     </row>
@@ -3557,7 +3589,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="12"/>
+      <c r="I112" s="10"/>
       <c r="J112" s="11"/>
       <c r="K112" s="8"/>
     </row>
@@ -3569,7 +3601,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="12"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="11"/>
       <c r="K113" s="8"/>
     </row>
@@ -3581,7 +3613,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="12"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="11"/>
       <c r="K114" s="8"/>
     </row>
@@ -3593,7 +3625,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="12"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="11"/>
       <c r="K115" s="8"/>
     </row>
@@ -3605,7 +3637,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="12"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="11"/>
       <c r="K116" s="8"/>
     </row>
@@ -3617,7 +3649,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="12"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="11"/>
       <c r="K117" s="8"/>
     </row>
@@ -3629,7 +3661,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="12"/>
+      <c r="I118" s="10"/>
       <c r="J118" s="11"/>
       <c r="K118" s="8"/>
     </row>
@@ -3641,7 +3673,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="12"/>
+      <c r="I119" s="10"/>
       <c r="J119" s="11"/>
       <c r="K119" s="8"/>
     </row>
@@ -3653,7 +3685,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="12"/>
+      <c r="I120" s="10"/>
       <c r="J120" s="11"/>
       <c r="K120" s="8"/>
     </row>
@@ -3665,7 +3697,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="12"/>
+      <c r="I121" s="10"/>
       <c r="J121" s="11"/>
       <c r="K121" s="8"/>
     </row>
@@ -3677,7 +3709,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="12"/>
+      <c r="I122" s="10"/>
       <c r="J122" s="11"/>
       <c r="K122" s="8"/>
     </row>
@@ -3689,7 +3721,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="12"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="11"/>
       <c r="K123" s="8"/>
     </row>
@@ -3701,7 +3733,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="12"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="11"/>
       <c r="K124" s="8"/>
     </row>
@@ -3713,91 +3745,39 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="12"/>
+      <c r="I125" s="10"/>
       <c r="J125" s="11"/>
       <c r="K125" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
@@ -3815,33 +3795,85 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
+++ b/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Learning Time(minute)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>tree에 주소 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,25 +802,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +840,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,7 +1165,7 @@
   <dimension ref="B2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2"/>
@@ -1179,30 +1183,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2"/>
@@ -1252,46 +1256,46 @@
     </row>
     <row r="8" spans="2:11" ht="7.5" customHeight="1"/>
     <row r="9" spans="2:11" ht="15" customHeight="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="21" t="s">
+      <c r="E9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="26.4" customHeight="1">
       <c r="B11" s="6">
@@ -1315,7 +1319,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="11"/>
@@ -1345,7 +1349,7 @@
       <c r="H12" s="6">
         <v>736</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
     </row>
@@ -1371,7 +1375,7 @@
       <c r="H13" s="6">
         <v>533</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
     </row>
@@ -1397,7 +1401,7 @@
       <c r="H14" s="6">
         <v>342</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="11"/>
       <c r="K14" s="8"/>
     </row>
@@ -1423,7 +1427,7 @@
       <c r="H15" s="6">
         <v>445</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="11"/>
       <c r="K15" s="8"/>
     </row>
@@ -1449,7 +1453,7 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="11"/>
@@ -1479,7 +1483,7 @@
       <c r="H17" s="6">
         <v>723</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="11"/>
       <c r="K17" s="8"/>
     </row>
@@ -1505,7 +1509,7 @@
       <c r="H18" s="6">
         <v>1123</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8" t="s">
         <v>25</v>
@@ -1533,7 +1537,7 @@
       <c r="H19" s="6">
         <v>318</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -1561,7 +1565,7 @@
       <c r="H20" s="6">
         <v>521</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8" t="s">
         <v>29</v>
@@ -1589,8 +1593,8 @@
       <c r="H21" s="6">
         <v>329</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11">
@@ -1615,7 +1619,7 @@
       <c r="H22" s="7">
         <v>697</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="11"/>
       <c r="K22" s="8" t="s">
         <v>33</v>
@@ -1643,7 +1647,7 @@
       <c r="H23" s="7">
         <v>1306</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="11"/>
       <c r="K23" s="8" t="s">
         <v>35</v>
@@ -1671,7 +1675,7 @@
       <c r="H24" s="7">
         <v>3689</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="11"/>
       <c r="K24" s="8" t="s">
         <v>37</v>
@@ -1699,7 +1703,7 @@
       <c r="H25" s="7">
         <v>4005</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="11"/>
       <c r="K25" s="8" t="s">
         <v>39</v>
@@ -1727,7 +1731,7 @@
       <c r="H26" s="7">
         <v>2572</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="11"/>
       <c r="K26" s="8" t="s">
         <v>43</v>
@@ -1755,7 +1759,7 @@
       <c r="H27" s="7">
         <v>2691</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="11"/>
       <c r="K27" s="8"/>
     </row>
@@ -1781,7 +1785,7 @@
       <c r="H28" s="7">
         <v>2001</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="11"/>
       <c r="K28" s="8" t="s">
         <v>44</v>
@@ -1809,7 +1813,7 @@
       <c r="H29" s="7">
         <v>3568</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="11"/>
       <c r="K29" s="8" t="s">
         <v>46</v>
@@ -1837,7 +1841,7 @@
       <c r="H30" s="7">
         <v>3394</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="11"/>
       <c r="K30" s="8" t="s">
         <v>48</v>
@@ -1865,7 +1869,7 @@
       <c r="H31" s="7">
         <v>2955</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="11"/>
       <c r="K31" s="8"/>
     </row>
@@ -1891,7 +1895,7 @@
       <c r="H32" s="7">
         <v>4302</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
         <v>54</v>
@@ -1919,7 +1923,7 @@
       <c r="H33" s="7">
         <v>3297</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="11"/>
       <c r="K33" s="8" t="s">
         <v>55</v>
@@ -1947,7 +1951,7 @@
       <c r="H34" s="7">
         <v>4295</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="11"/>
       <c r="K34" s="8" t="s">
         <v>56</v>
@@ -1975,7 +1979,7 @@
       <c r="H35" s="7">
         <v>5168</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="11"/>
       <c r="K35" s="8" t="s">
         <v>57</v>
@@ -2003,7 +2007,7 @@
       <c r="H36" s="7">
         <v>3419</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="11"/>
       <c r="K36" s="8"/>
     </row>
@@ -2029,7 +2033,7 @@
       <c r="H37" s="7">
         <v>6085</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="11"/>
       <c r="K37" s="8" t="s">
         <v>60</v>
@@ -2057,7 +2061,7 @@
       <c r="H38" s="7">
         <v>1996</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="11"/>
       <c r="K38" s="8" t="s">
         <v>62</v>
@@ -2085,7 +2089,7 @@
       <c r="H39" s="7">
         <v>215</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="11"/>
       <c r="K39" s="8" t="s">
         <v>64</v>
@@ -2113,7 +2117,7 @@
       <c r="H40" s="7">
         <v>1124</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="12" t="s">
         <v>66</v>
       </c>
       <c r="J40" s="11"/>
@@ -2143,7 +2147,7 @@
       <c r="H41" s="7">
         <v>4240</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="11"/>
       <c r="K41" s="8" t="s">
         <v>69</v>
@@ -2171,7 +2175,7 @@
       <c r="H42" s="7">
         <v>2994</v>
       </c>
-      <c r="I42" s="10"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="11"/>
       <c r="K42" s="8" t="s">
         <v>71</v>
@@ -2199,7 +2203,7 @@
       <c r="H43" s="7">
         <v>3084</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="11"/>
       <c r="K43" s="8" t="s">
         <v>73</v>
@@ -2227,7 +2231,7 @@
       <c r="H44" s="7">
         <v>3884</v>
       </c>
-      <c r="I44" s="10"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="11"/>
       <c r="K44" s="8" t="s">
         <v>75</v>
@@ -2255,7 +2259,7 @@
       <c r="H45" s="7">
         <v>686</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="12" t="s">
         <v>78</v>
       </c>
       <c r="J45" s="11"/>
@@ -2285,7 +2289,7 @@
       <c r="H46" s="7">
         <v>1556</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="12" t="s">
         <v>78</v>
       </c>
       <c r="J46" s="11"/>
@@ -2315,7 +2319,7 @@
       <c r="H47" s="7">
         <v>974</v>
       </c>
-      <c r="I47" s="10"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="11"/>
       <c r="K47" s="8"/>
     </row>
@@ -2341,7 +2345,7 @@
       <c r="H48" s="7">
         <v>71</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J48" s="11"/>
@@ -2371,7 +2375,7 @@
       <c r="H49" s="7">
         <v>1481</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J49" s="11"/>
@@ -2401,7 +2405,7 @@
       <c r="H50" s="7">
         <v>668</v>
       </c>
-      <c r="I50" s="10"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="11"/>
       <c r="K50" s="8" t="s">
         <v>87</v>
@@ -2429,7 +2433,7 @@
       <c r="H51" s="7">
         <v>2695</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="11"/>
       <c r="K51" s="8" t="s">
         <v>89</v>
@@ -2457,7 +2461,7 @@
       <c r="H52" s="7">
         <v>1045</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="11"/>
       <c r="K52" s="8" t="s">
         <v>91</v>
@@ -2485,7 +2489,7 @@
       <c r="H53" s="7">
         <v>1806</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="11"/>
       <c r="K53" s="8" t="s">
         <v>93</v>
@@ -2513,7 +2517,7 @@
       <c r="H54" s="7">
         <v>319</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="11"/>
       <c r="K54" s="8" t="s">
         <v>95</v>
@@ -2541,7 +2545,7 @@
       <c r="H55" s="7">
         <v>2991</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="12"/>
       <c r="J55" s="11"/>
       <c r="K55" s="8" t="s">
         <v>97</v>
@@ -2569,7 +2573,7 @@
       <c r="H56" s="7">
         <v>4771</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="11"/>
       <c r="K56" s="8" t="s">
         <v>99</v>
@@ -2597,7 +2601,7 @@
       <c r="H57" s="7">
         <v>192</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="11"/>
       <c r="K57" s="8" t="s">
         <v>101</v>
@@ -2625,7 +2629,7 @@
       <c r="H58" s="7">
         <v>689</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="11"/>
       <c r="K58" s="8" t="s">
         <v>103</v>
@@ -2653,7 +2657,7 @@
       <c r="H59" s="7">
         <v>134</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="11"/>
       <c r="K59" s="8"/>
     </row>
@@ -2679,7 +2683,7 @@
       <c r="H60" s="7">
         <v>2332</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="11"/>
       <c r="K60" s="8" t="s">
         <v>106</v>
@@ -2707,7 +2711,7 @@
       <c r="H61" s="7">
         <v>219</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="26" t="s">
         <v>119</v>
       </c>
       <c r="J61" s="11"/>
@@ -2735,7 +2739,7 @@
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="25" t="s">
         <v>108</v>
       </c>
       <c r="J62" s="11"/>
@@ -2763,7 +2767,7 @@
       <c r="H63" s="7">
         <v>109</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="12" t="s">
         <v>111</v>
       </c>
       <c r="J63" s="11"/>
@@ -2791,7 +2795,7 @@
       <c r="H64" s="7">
         <v>93</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="25" t="s">
         <v>118</v>
       </c>
       <c r="J64" s="11"/>
@@ -2819,7 +2823,7 @@
       <c r="H65" s="7">
         <v>129</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J65" s="11"/>
@@ -2849,7 +2853,7 @@
       <c r="H66" s="7">
         <v>99</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="11"/>
       <c r="K66" s="8"/>
     </row>
@@ -2875,7 +2879,7 @@
       <c r="H67" s="7">
         <v>101</v>
       </c>
-      <c r="I67" s="10"/>
+      <c r="I67" s="12"/>
       <c r="J67" s="11"/>
       <c r="K67" s="8" t="s">
         <v>116</v>
@@ -2903,7 +2907,7 @@
       <c r="H68" s="7">
         <v>290</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="12" t="s">
         <v>121</v>
       </c>
       <c r="J68" s="11"/>
@@ -2931,7 +2935,7 @@
       <c r="H69" s="7">
         <v>293</v>
       </c>
-      <c r="I69" s="10"/>
+      <c r="I69" s="12"/>
       <c r="J69" s="11"/>
       <c r="K69" s="8"/>
     </row>
@@ -2957,7 +2961,7 @@
       <c r="H70" s="7">
         <v>94</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="25" t="s">
         <v>123</v>
       </c>
       <c r="J70" s="11"/>
@@ -2987,7 +2991,7 @@
       <c r="H71" s="7">
         <v>24</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="11"/>
       <c r="K71" s="8" t="s">
         <v>125</v>
@@ -3015,7 +3019,7 @@
       <c r="H72" s="7">
         <v>224</v>
       </c>
-      <c r="I72" s="10"/>
+      <c r="I72" s="12"/>
       <c r="J72" s="11"/>
       <c r="K72" s="8" t="s">
         <v>126</v>
@@ -3043,7 +3047,7 @@
       <c r="H73" s="7">
         <v>242</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="11"/>
       <c r="K73" s="8" t="s">
         <v>128</v>
@@ -3071,7 +3075,7 @@
       <c r="H74" s="7">
         <v>780</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="11"/>
       <c r="K74" s="8" t="s">
         <v>130</v>
@@ -3099,7 +3103,7 @@
       <c r="H75" s="7">
         <v>373</v>
       </c>
-      <c r="I75" s="10"/>
+      <c r="I75" s="12"/>
       <c r="J75" s="11"/>
       <c r="K75" s="8" t="s">
         <v>132</v>
@@ -3127,7 +3131,7 @@
       <c r="H76" s="7">
         <v>619</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="I76" s="12"/>
       <c r="J76" s="11"/>
       <c r="K76" s="8" t="s">
         <v>133</v>
@@ -3155,7 +3159,7 @@
       <c r="H77" s="7">
         <v>91</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="12"/>
       <c r="J77" s="11"/>
       <c r="K77" s="8"/>
     </row>
@@ -3181,31 +3185,59 @@
       <c r="H78" s="7">
         <v>670</v>
       </c>
-      <c r="I78" s="10"/>
+      <c r="I78" s="12"/>
       <c r="J78" s="11"/>
       <c r="K78" s="8"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="10"/>
+      <c r="B79" s="6">
+        <v>180906</v>
+      </c>
+      <c r="C79" s="6">
+        <v>3</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>313</v>
+      </c>
+      <c r="H79" s="7">
+        <v>221</v>
+      </c>
+      <c r="I79" s="12"/>
       <c r="J79" s="11"/>
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="10"/>
+      <c r="B80" s="6">
+        <v>180907</v>
+      </c>
+      <c r="C80" s="6">
+        <v>3</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>300</v>
+      </c>
+      <c r="G80" s="6">
+        <v>180</v>
+      </c>
+      <c r="H80" s="7">
+        <v>676</v>
+      </c>
+      <c r="I80" s="12"/>
       <c r="J80" s="11"/>
       <c r="K80" s="8"/>
     </row>
@@ -3217,7 +3249,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="10"/>
+      <c r="I81" s="12"/>
       <c r="J81" s="11"/>
       <c r="K81" s="8"/>
     </row>
@@ -3229,7 +3261,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="10"/>
+      <c r="I82" s="12"/>
       <c r="J82" s="11"/>
       <c r="K82" s="8"/>
     </row>
@@ -3241,7 +3273,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="10"/>
+      <c r="I83" s="12"/>
       <c r="J83" s="11"/>
       <c r="K83" s="8"/>
     </row>
@@ -3253,7 +3285,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="12"/>
       <c r="J84" s="11"/>
       <c r="K84" s="8"/>
     </row>
@@ -3265,7 +3297,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="10"/>
+      <c r="I85" s="12"/>
       <c r="J85" s="11"/>
       <c r="K85" s="8"/>
     </row>
@@ -3277,7 +3309,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="10"/>
+      <c r="I86" s="12"/>
       <c r="J86" s="11"/>
       <c r="K86" s="8"/>
     </row>
@@ -3289,7 +3321,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="10"/>
+      <c r="I87" s="12"/>
       <c r="J87" s="11"/>
       <c r="K87" s="8"/>
     </row>
@@ -3301,7 +3333,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="10"/>
+      <c r="I88" s="12"/>
       <c r="J88" s="11"/>
       <c r="K88" s="8"/>
     </row>
@@ -3313,7 +3345,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="10"/>
+      <c r="I89" s="12"/>
       <c r="J89" s="11"/>
       <c r="K89" s="8"/>
     </row>
@@ -3325,7 +3357,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="10"/>
+      <c r="I90" s="12"/>
       <c r="J90" s="11"/>
       <c r="K90" s="8"/>
     </row>
@@ -3337,7 +3369,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="10"/>
+      <c r="I91" s="12"/>
       <c r="J91" s="11"/>
       <c r="K91" s="8"/>
     </row>
@@ -3349,7 +3381,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="10"/>
+      <c r="I92" s="12"/>
       <c r="J92" s="11"/>
       <c r="K92" s="8"/>
     </row>
@@ -3361,7 +3393,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="10"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="11"/>
       <c r="K93" s="8"/>
     </row>
@@ -3373,7 +3405,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="10"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="11"/>
       <c r="K94" s="8"/>
     </row>
@@ -3385,7 +3417,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="10"/>
+      <c r="I95" s="12"/>
       <c r="J95" s="11"/>
       <c r="K95" s="8"/>
     </row>
@@ -3397,7 +3429,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="10"/>
+      <c r="I96" s="12"/>
       <c r="J96" s="11"/>
       <c r="K96" s="8"/>
     </row>
@@ -3409,7 +3441,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="10"/>
+      <c r="I97" s="12"/>
       <c r="J97" s="11"/>
       <c r="K97" s="8"/>
     </row>
@@ -3421,7 +3453,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="10"/>
+      <c r="I98" s="12"/>
       <c r="J98" s="11"/>
       <c r="K98" s="8"/>
     </row>
@@ -3433,7 +3465,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="10"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="11"/>
       <c r="K99" s="8"/>
     </row>
@@ -3445,7 +3477,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="10"/>
+      <c r="I100" s="12"/>
       <c r="J100" s="11"/>
       <c r="K100" s="8"/>
     </row>
@@ -3457,7 +3489,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="10"/>
+      <c r="I101" s="12"/>
       <c r="J101" s="11"/>
       <c r="K101" s="8"/>
     </row>
@@ -3469,7 +3501,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="10"/>
+      <c r="I102" s="12"/>
       <c r="J102" s="11"/>
       <c r="K102" s="8"/>
     </row>
@@ -3481,7 +3513,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="10"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="11"/>
       <c r="K103" s="8"/>
     </row>
@@ -3493,7 +3525,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="10"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="11"/>
       <c r="K104" s="8"/>
     </row>
@@ -3505,7 +3537,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="10"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="11"/>
       <c r="K105" s="8"/>
     </row>
@@ -3517,7 +3549,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="10"/>
+      <c r="I106" s="12"/>
       <c r="J106" s="11"/>
       <c r="K106" s="8"/>
     </row>
@@ -3529,7 +3561,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="10"/>
+      <c r="I107" s="12"/>
       <c r="J107" s="11"/>
       <c r="K107" s="8"/>
     </row>
@@ -3541,7 +3573,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="10"/>
+      <c r="I108" s="12"/>
       <c r="J108" s="11"/>
       <c r="K108" s="8"/>
     </row>
@@ -3553,7 +3585,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="10"/>
+      <c r="I109" s="12"/>
       <c r="J109" s="11"/>
       <c r="K109" s="8"/>
     </row>
@@ -3565,7 +3597,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="10"/>
+      <c r="I110" s="12"/>
       <c r="J110" s="11"/>
       <c r="K110" s="8"/>
     </row>
@@ -3577,7 +3609,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="10"/>
+      <c r="I111" s="12"/>
       <c r="J111" s="11"/>
       <c r="K111" s="8"/>
     </row>
@@ -3589,7 +3621,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="10"/>
+      <c r="I112" s="12"/>
       <c r="J112" s="11"/>
       <c r="K112" s="8"/>
     </row>
@@ -3601,7 +3633,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="10"/>
+      <c r="I113" s="12"/>
       <c r="J113" s="11"/>
       <c r="K113" s="8"/>
     </row>
@@ -3613,7 +3645,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="10"/>
+      <c r="I114" s="12"/>
       <c r="J114" s="11"/>
       <c r="K114" s="8"/>
     </row>
@@ -3625,7 +3657,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="10"/>
+      <c r="I115" s="12"/>
       <c r="J115" s="11"/>
       <c r="K115" s="8"/>
     </row>
@@ -3637,7 +3669,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="10"/>
+      <c r="I116" s="12"/>
       <c r="J116" s="11"/>
       <c r="K116" s="8"/>
     </row>
@@ -3649,7 +3681,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="10"/>
+      <c r="I117" s="12"/>
       <c r="J117" s="11"/>
       <c r="K117" s="8"/>
     </row>
@@ -3661,7 +3693,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="10"/>
+      <c r="I118" s="12"/>
       <c r="J118" s="11"/>
       <c r="K118" s="8"/>
     </row>
@@ -3673,7 +3705,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="10"/>
+      <c r="I119" s="12"/>
       <c r="J119" s="11"/>
       <c r="K119" s="8"/>
     </row>
@@ -3685,7 +3717,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="10"/>
+      <c r="I120" s="12"/>
       <c r="J120" s="11"/>
       <c r="K120" s="8"/>
     </row>
@@ -3697,7 +3729,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="10"/>
+      <c r="I121" s="12"/>
       <c r="J121" s="11"/>
       <c r="K121" s="8"/>
     </row>
@@ -3709,7 +3741,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="10"/>
+      <c r="I122" s="12"/>
       <c r="J122" s="11"/>
       <c r="K122" s="8"/>
     </row>
@@ -3721,7 +3753,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="10"/>
+      <c r="I123" s="12"/>
       <c r="J123" s="11"/>
       <c r="K123" s="8"/>
     </row>
@@ -3733,7 +3765,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="10"/>
+      <c r="I124" s="12"/>
       <c r="J124" s="11"/>
       <c r="K124" s="8"/>
     </row>
@@ -3745,39 +3777,91 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="10"/>
+      <c r="I125" s="12"/>
       <c r="J125" s="11"/>
       <c r="K125" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
@@ -3795,85 +3879,33 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
+++ b/learning_log/Namoosori_learning_log_jonghyun_kim.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
   <si>
     <t>Learning Time(minute)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>tree에 주소 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,13 +806,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,18 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1165,7 +1169,7 @@
   <dimension ref="B2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2"/>
@@ -1183,30 +1187,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2"/>
@@ -1256,46 +1260,46 @@
     </row>
     <row r="8" spans="2:11" ht="7.5" customHeight="1"/>
     <row r="9" spans="2:11" ht="15" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="17" t="s">
+      <c r="E9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" ht="26.4" customHeight="1">
       <c r="B11" s="6">
@@ -1319,7 +1323,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="11"/>
@@ -1349,7 +1353,7 @@
       <c r="H12" s="6">
         <v>736</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
     </row>
@@ -1375,7 +1379,7 @@
       <c r="H13" s="6">
         <v>533</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
     </row>
@@ -1401,7 +1405,7 @@
       <c r="H14" s="6">
         <v>342</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="8"/>
     </row>
@@ -1427,7 +1431,7 @@
       <c r="H15" s="6">
         <v>445</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="8"/>
     </row>
@@ -1453,7 +1457,7 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="11"/>
@@ -1483,7 +1487,7 @@
       <c r="H17" s="6">
         <v>723</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="11"/>
       <c r="K17" s="8"/>
     </row>
@@ -1509,7 +1513,7 @@
       <c r="H18" s="6">
         <v>1123</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8" t="s">
         <v>25</v>
@@ -1537,7 +1541,7 @@
       <c r="H19" s="6">
         <v>318</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8" t="s">
         <v>27</v>
@@ -1565,7 +1569,7 @@
       <c r="H20" s="6">
         <v>521</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8" t="s">
         <v>29</v>
@@ -1593,8 +1597,8 @@
       <c r="H21" s="6">
         <v>329</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11">
@@ -1619,7 +1623,7 @@
       <c r="H22" s="7">
         <v>697</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="8" t="s">
         <v>33</v>
@@ -1647,7 +1651,7 @@
       <c r="H23" s="7">
         <v>1306</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="K23" s="8" t="s">
         <v>35</v>
@@ -1675,7 +1679,7 @@
       <c r="H24" s="7">
         <v>3689</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="8" t="s">
         <v>37</v>
@@ -1703,7 +1707,7 @@
       <c r="H25" s="7">
         <v>4005</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="11"/>
       <c r="K25" s="8" t="s">
         <v>39</v>
@@ -1731,7 +1735,7 @@
       <c r="H26" s="7">
         <v>2572</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="11"/>
       <c r="K26" s="8" t="s">
         <v>43</v>
@@ -1759,7 +1763,7 @@
       <c r="H27" s="7">
         <v>2691</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="11"/>
       <c r="K27" s="8"/>
     </row>
@@ -1785,7 +1789,7 @@
       <c r="H28" s="7">
         <v>2001</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="K28" s="8" t="s">
         <v>44</v>
@@ -1813,7 +1817,7 @@
       <c r="H29" s="7">
         <v>3568</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="11"/>
       <c r="K29" s="8" t="s">
         <v>46</v>
@@ -1841,7 +1845,7 @@
       <c r="H30" s="7">
         <v>3394</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="8" t="s">
         <v>48</v>
@@ -1869,7 +1873,7 @@
       <c r="H31" s="7">
         <v>2955</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="8"/>
     </row>
@@ -1895,7 +1899,7 @@
       <c r="H32" s="7">
         <v>4302</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="s">
         <v>54</v>
@@ -1923,7 +1927,7 @@
       <c r="H33" s="7">
         <v>3297</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="11"/>
       <c r="K33" s="8" t="s">
         <v>55</v>
@@ -1951,7 +1955,7 @@
       <c r="H34" s="7">
         <v>4295</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="11"/>
       <c r="K34" s="8" t="s">
         <v>56</v>
@@ -1979,7 +1983,7 @@
       <c r="H35" s="7">
         <v>5168</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="11"/>
       <c r="K35" s="8" t="s">
         <v>57</v>
@@ -2007,7 +2011,7 @@
       <c r="H36" s="7">
         <v>3419</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="8"/>
     </row>
@@ -2033,7 +2037,7 @@
       <c r="H37" s="7">
         <v>6085</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="8" t="s">
         <v>60</v>
@@ -2061,7 +2065,7 @@
       <c r="H38" s="7">
         <v>1996</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="11"/>
       <c r="K38" s="8" t="s">
         <v>62</v>
@@ -2089,7 +2093,7 @@
       <c r="H39" s="7">
         <v>215</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="11"/>
       <c r="K39" s="8" t="s">
         <v>64</v>
@@ -2117,7 +2121,7 @@
       <c r="H40" s="7">
         <v>1124</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J40" s="11"/>
@@ -2147,7 +2151,7 @@
       <c r="H41" s="7">
         <v>4240</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="11"/>
       <c r="K41" s="8" t="s">
         <v>69</v>
@@ -2175,7 +2179,7 @@
       <c r="H42" s="7">
         <v>2994</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="11"/>
       <c r="K42" s="8" t="s">
         <v>71</v>
@@ -2203,7 +2207,7 @@
       <c r="H43" s="7">
         <v>3084</v>
       </c>
-      <c r="I43" s="12"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="11"/>
       <c r="K43" s="8" t="s">
         <v>73</v>
@@ -2231,7 +2235,7 @@
       <c r="H44" s="7">
         <v>3884</v>
       </c>
-      <c r="I44" s="12"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="11"/>
       <c r="K44" s="8" t="s">
         <v>75</v>
@@ -2259,7 +2263,7 @@
       <c r="H45" s="7">
         <v>686</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J45" s="11"/>
@@ -2289,7 +2293,7 @@
       <c r="H46" s="7">
         <v>1556</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J46" s="11"/>
@@ -2319,7 +2323,7 @@
       <c r="H47" s="7">
         <v>974</v>
       </c>
-      <c r="I47" s="12"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="11"/>
       <c r="K47" s="8"/>
     </row>
@@ -2345,7 +2349,7 @@
       <c r="H48" s="7">
         <v>71</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>81</v>
       </c>
       <c r="J48" s="11"/>
@@ -2375,7 +2379,7 @@
       <c r="H49" s="7">
         <v>1481</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J49" s="11"/>
@@ -2405,7 +2409,7 @@
       <c r="H50" s="7">
         <v>668</v>
       </c>
-      <c r="I50" s="12"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="11"/>
       <c r="K50" s="8" t="s">
         <v>87</v>
@@ -2433,7 +2437,7 @@
       <c r="H51" s="7">
         <v>2695</v>
       </c>
-      <c r="I51" s="12"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="11"/>
       <c r="K51" s="8" t="s">
         <v>89</v>
@@ -2461,7 +2465,7 @@
       <c r="H52" s="7">
         <v>1045</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="11"/>
       <c r="K52" s="8" t="s">
         <v>91</v>
@@ -2489,7 +2493,7 @@
       <c r="H53" s="7">
         <v>1806</v>
       </c>
-      <c r="I53" s="12"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="11"/>
       <c r="K53" s="8" t="s">
         <v>93</v>
@@ -2517,7 +2521,7 @@
       <c r="H54" s="7">
         <v>319</v>
       </c>
-      <c r="I54" s="12"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="11"/>
       <c r="K54" s="8" t="s">
         <v>95</v>
@@ -2545,7 +2549,7 @@
       <c r="H55" s="7">
         <v>2991</v>
       </c>
-      <c r="I55" s="12"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="8" t="s">
         <v>97</v>
@@ -2573,7 +2577,7 @@
       <c r="H56" s="7">
         <v>4771</v>
       </c>
-      <c r="I56" s="12"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="11"/>
       <c r="K56" s="8" t="s">
         <v>99</v>
@@ -2601,7 +2605,7 @@
       <c r="H57" s="7">
         <v>192</v>
       </c>
-      <c r="I57" s="12"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="11"/>
       <c r="K57" s="8" t="s">
         <v>101</v>
@@ -2629,7 +2633,7 @@
       <c r="H58" s="7">
         <v>689</v>
       </c>
-      <c r="I58" s="12"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="11"/>
       <c r="K58" s="8" t="s">
         <v>103</v>
@@ -2657,7 +2661,7 @@
       <c r="H59" s="7">
         <v>134</v>
       </c>
-      <c r="I59" s="12"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="11"/>
       <c r="K59" s="8"/>
     </row>
@@ -2683,7 +2687,7 @@
       <c r="H60" s="7">
         <v>2332</v>
       </c>
-      <c r="I60" s="12"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="11"/>
       <c r="K60" s="8" t="s">
         <v>106</v>
@@ -2711,7 +2715,7 @@
       <c r="H61" s="7">
         <v>219</v>
       </c>
-      <c r="I61" s="26" t="s">
+      <c r="I61" s="13" t="s">
         <v>119</v>
       </c>
       <c r="J61" s="11"/>
@@ -2739,7 +2743,7 @@
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J62" s="11"/>
@@ -2767,7 +2771,7 @@
       <c r="H63" s="7">
         <v>109</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="10" t="s">
         <v>111</v>
       </c>
       <c r="J63" s="11"/>
@@ -2795,7 +2799,7 @@
       <c r="H64" s="7">
         <v>93</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="12" t="s">
         <v>118</v>
       </c>
       <c r="J64" s="11"/>
@@ -2823,7 +2827,7 @@
       <c r="H65" s="7">
         <v>129</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="13" t="s">
         <v>120</v>
       </c>
       <c r="J65" s="11"/>
@@ -2853,7 +2857,7 @@
       <c r="H66" s="7">
         <v>99</v>
       </c>
-      <c r="I66" s="12"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="11"/>
       <c r="K66" s="8"/>
     </row>
@@ -2879,7 +2883,7 @@
       <c r="H67" s="7">
         <v>101</v>
       </c>
-      <c r="I67" s="12"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="11"/>
       <c r="K67" s="8" t="s">
         <v>116</v>
@@ -2907,7 +2911,7 @@
       <c r="H68" s="7">
         <v>290</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="10" t="s">
         <v>121</v>
       </c>
       <c r="J68" s="11"/>
@@ -2935,7 +2939,7 @@
       <c r="H69" s="7">
         <v>293</v>
       </c>
-      <c r="I69" s="12"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="11"/>
       <c r="K69" s="8"/>
     </row>
@@ -2961,7 +2965,7 @@
       <c r="H70" s="7">
         <v>94</v>
       </c>
-      <c r="I70" s="25" t="s">
+      <c r="I70" s="12" t="s">
         <v>123</v>
       </c>
       <c r="J70" s="11"/>
@@ -2991,7 +2995,7 @@
       <c r="H71" s="7">
         <v>24</v>
       </c>
-      <c r="I71" s="12"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="11"/>
       <c r="K71" s="8" t="s">
         <v>125</v>
@@ -3019,7 +3023,7 @@
       <c r="H72" s="7">
         <v>224</v>
       </c>
-      <c r="I72" s="12"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="11"/>
       <c r="K72" s="8" t="s">
         <v>126</v>
@@ -3047,7 +3051,7 @@
       <c r="H73" s="7">
         <v>242</v>
       </c>
-      <c r="I73" s="12"/>
+      <c r="I73" s="10"/>
       <c r="J73" s="11"/>
       <c r="K73" s="8" t="s">
         <v>128</v>
@@ -3075,7 +3079,7 @@
       <c r="H74" s="7">
         <v>780</v>
       </c>
-      <c r="I74" s="12"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="11"/>
       <c r="K74" s="8" t="s">
         <v>130</v>
@@ -3103,7 +3107,7 @@
       <c r="H75" s="7">
         <v>373</v>
       </c>
-      <c r="I75" s="12"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="11"/>
       <c r="K75" s="8" t="s">
         <v>132</v>
@@ -3131,7 +3135,7 @@
       <c r="H76" s="7">
         <v>619</v>
       </c>
-      <c r="I76" s="12"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="11"/>
       <c r="K76" s="8" t="s">
         <v>133</v>
@@ -3159,7 +3163,7 @@
       <c r="H77" s="7">
         <v>91</v>
       </c>
-      <c r="I77" s="12"/>
+      <c r="I77" s="10"/>
       <c r="J77" s="11"/>
       <c r="K77" s="8"/>
     </row>
@@ -3185,7 +3189,7 @@
       <c r="H78" s="7">
         <v>670</v>
       </c>
-      <c r="I78" s="12"/>
+      <c r="I78" s="10"/>
       <c r="J78" s="11"/>
       <c r="K78" s="8"/>
     </row>
@@ -3211,7 +3215,7 @@
       <c r="H79" s="7">
         <v>221</v>
       </c>
-      <c r="I79" s="12"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="11"/>
       <c r="K79" s="8"/>
     </row>
@@ -3237,43 +3241,85 @@
       <c r="H80" s="7">
         <v>676</v>
       </c>
-      <c r="I80" s="12"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="11"/>
       <c r="K80" s="8"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="6">
+        <v>180909</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>174</v>
+      </c>
+      <c r="H81" s="7">
+        <v>119</v>
+      </c>
+      <c r="I81" s="10"/>
       <c r="J81" s="11"/>
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="12"/>
+      <c r="B82" s="6">
+        <v>180911</v>
+      </c>
+      <c r="C82" s="6">
+        <v>3</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>229</v>
+      </c>
+      <c r="H82" s="7">
+        <v>316</v>
+      </c>
+      <c r="I82" s="10"/>
       <c r="J82" s="11"/>
       <c r="K82" s="8"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="12"/>
+      <c r="B83" s="6">
+        <v>180912</v>
+      </c>
+      <c r="C83" s="6">
+        <v>3</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>112</v>
+      </c>
+      <c r="G83" s="6">
+        <v>264</v>
+      </c>
+      <c r="H83" s="7">
+        <v>414</v>
+      </c>
+      <c r="I83" s="10"/>
       <c r="J83" s="11"/>
       <c r="K83" s="8"/>
     </row>
@@ -3285,7 +3331,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="11"/>
       <c r="K84" s="8"/>
     </row>
@@ -3297,7 +3343,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="11"/>
       <c r="K85" s="8"/>
     </row>
@@ -3309,7 +3355,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="11"/>
       <c r="K86" s="8"/>
     </row>
@@ -3321,7 +3367,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="10"/>
       <c r="J87" s="11"/>
       <c r="K87" s="8"/>
     </row>
@@ -3333,7 +3379,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="12"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="11"/>
       <c r="K88" s="8"/>
     </row>
@@ -3345,7 +3391,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="11"/>
       <c r="K89" s="8"/>
     </row>
@@ -3357,7 +3403,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="12"/>
+      <c r="I90" s="10"/>
       <c r="J90" s="11"/>
       <c r="K90" s="8"/>
     </row>
@@ -3369,7 +3415,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="12"/>
+      <c r="I91" s="10"/>
       <c r="J91" s="11"/>
       <c r="K91" s="8"/>
     </row>
@@ -3381,7 +3427,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="10"/>
       <c r="J92" s="11"/>
       <c r="K92" s="8"/>
     </row>
@@ -3393,7 +3439,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="10"/>
       <c r="J93" s="11"/>
       <c r="K93" s="8"/>
     </row>
@@ -3405,7 +3451,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="10"/>
       <c r="J94" s="11"/>
       <c r="K94" s="8"/>
     </row>
@@ -3417,7 +3463,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="10"/>
       <c r="J95" s="11"/>
       <c r="K95" s="8"/>
     </row>
@@ -3429,7 +3475,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="12"/>
+      <c r="I96" s="10"/>
       <c r="J96" s="11"/>
       <c r="K96" s="8"/>
     </row>
@@ -3441,7 +3487,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="12"/>
+      <c r="I97" s="10"/>
       <c r="J97" s="11"/>
       <c r="K97" s="8"/>
     </row>
@@ -3453,7 +3499,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="12"/>
+      <c r="I98" s="10"/>
       <c r="J98" s="11"/>
       <c r="K98" s="8"/>
     </row>
@@ -3465,7 +3511,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="12"/>
+      <c r="I99" s="10"/>
       <c r="J99" s="11"/>
       <c r="K99" s="8"/>
     </row>
@@ -3477,7 +3523,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="12"/>
+      <c r="I100" s="10"/>
       <c r="J100" s="11"/>
       <c r="K100" s="8"/>
     </row>
@@ -3489,7 +3535,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="12"/>
+      <c r="I101" s="10"/>
       <c r="J101" s="11"/>
       <c r="K101" s="8"/>
     </row>
@@ -3501,7 +3547,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="10"/>
       <c r="J102" s="11"/>
       <c r="K102" s="8"/>
     </row>
@@ -3513,7 +3559,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="10"/>
       <c r="J103" s="11"/>
       <c r="K103" s="8"/>
     </row>
@@ -3525,7 +3571,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="10"/>
       <c r="J104" s="11"/>
       <c r="K104" s="8"/>
     </row>
@@ -3537,7 +3583,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="12"/>
+      <c r="I105" s="10"/>
       <c r="J105" s="11"/>
       <c r="K105" s="8"/>
     </row>
@@ -3549,7 +3595,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="12"/>
+      <c r="I106" s="10"/>
       <c r="J106" s="11"/>
       <c r="K106" s="8"/>
     </row>
@@ -3561,7 +3607,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="12"/>
+      <c r="I107" s="10"/>
       <c r="J107" s="11"/>
       <c r="K107" s="8"/>
     </row>
@@ -3573,7 +3619,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="12"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="11"/>
       <c r="K108" s="8"/>
     </row>
@@ -3585,7 +3631,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="12"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="11"/>
       <c r="K109" s="8"/>
     </row>
@@ -3597,7 +3643,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="12"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="11"/>
       <c r="K110" s="8"/>
     </row>
@@ -3609,7 +3655,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="12"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="11"/>
       <c r="K111" s="8"/>
     </row>
@@ -3621,7 +3667,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="12"/>
+      <c r="I112" s="10"/>
       <c r="J112" s="11"/>
       <c r="K112" s="8"/>
     </row>
@@ -3633,7 +3679,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="12"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="11"/>
       <c r="K113" s="8"/>
     </row>
@@ -3645,7 +3691,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="12"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="11"/>
       <c r="K114" s="8"/>
     </row>
@@ -3657,7 +3703,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="12"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="11"/>
       <c r="K115" s="8"/>
     </row>
@@ -3669,7 +3715,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="12"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="11"/>
       <c r="K116" s="8"/>
     </row>
@@ -3681,7 +3727,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="12"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="11"/>
       <c r="K117" s="8"/>
     </row>
@@ -3693,7 +3739,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="12"/>
+      <c r="I118" s="10"/>
       <c r="J118" s="11"/>
       <c r="K118" s="8"/>
     </row>
@@ -3705,7 +3751,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="12"/>
+      <c r="I119" s="10"/>
       <c r="J119" s="11"/>
       <c r="K119" s="8"/>
     </row>
@@ -3717,7 +3763,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="12"/>
+      <c r="I120" s="10"/>
       <c r="J120" s="11"/>
       <c r="K120" s="8"/>
     </row>
@@ -3729,7 +3775,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="12"/>
+      <c r="I121" s="10"/>
       <c r="J121" s="11"/>
       <c r="K121" s="8"/>
     </row>
@@ -3741,7 +3787,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="12"/>
+      <c r="I122" s="10"/>
       <c r="J122" s="11"/>
       <c r="K122" s="8"/>
     </row>
@@ -3753,7 +3799,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="12"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="11"/>
       <c r="K123" s="8"/>
     </row>
@@ -3765,7 +3811,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="12"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="11"/>
       <c r="K124" s="8"/>
     </row>
@@ -3777,91 +3823,39 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="12"/>
+      <c r="I125" s="10"/>
       <c r="J125" s="11"/>
       <c r="K125" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
@@ -3879,33 +3873,85 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
